--- a/data/trans_camb/P5_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 6,51</t>
+          <t>-5,72; 5,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,0</t>
+          <t>-3,81; 5,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,64</t>
+          <t>-3,32; 3,67</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 20,96</t>
+          <t>-15,18; 18,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 20,75</t>
+          <t>-11,27; 19,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 14,91</t>
+          <t>-9,75; 12,06</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,35</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 6,24</t>
+          <t>-8,84; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 6,0</t>
+          <t>-7,37; 4,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,43</t>
+          <t>-6,4; 2,9</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>-2,26%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 10,4</t>
+          <t>-13,52; 7,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 11,23</t>
+          <t>-12,53; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 7,76</t>
+          <t>-10,26; 5,01</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 17,7</t>
+          <t>-12,03; 16,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 11,86</t>
+          <t>-11,47; 10,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 11,2</t>
+          <t>-7,88; 10,82</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 29,17</t>
+          <t>-16,32; 26,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 19,75</t>
+          <t>-16,15; 17,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 17,88</t>
+          <t>-10,99; 17,33</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,3</t>
+          <t>-4,85; 4,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,94</t>
+          <t>-3,97; 3,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,07</t>
+          <t>-3,23; 2,41</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>-0,57%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 11,12</t>
+          <t>-9,28; 9,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 9,03</t>
+          <t>-8,38; 8,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,58</t>
+          <t>-6,56; 5,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5902131877386085</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7209772722123697</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6566287669690585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 5,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 5,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 3,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.167463281434095</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.875458861469298</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.934700502161771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.747800832947898</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.671230469832646</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.291435088281379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,18; 18,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,27; 19,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,75; 12,06</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.01713859635651855</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.02298257548902726</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01999682288985099</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1354132735739564</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1121770073610561</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.08457955523483891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; 4,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 4,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 2,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2078743968482365</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2068826508318886</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1393787431759485</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,18%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.564364680844421</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.007341883914069314</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.7673805863499972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 7,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,53; 9,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 5,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.266973536310919</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.090371927576737</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.645845696327815</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.396282551298174</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.073012807520329</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.666437696395385</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,03; 16,09</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,47; 10,64</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 10,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.02493682580255581</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0001301212613660563</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01288586277638686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1410085753913002</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1032681364070527</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.09142531786999616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,32; 26,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-16,15; 17,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 17,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.071612798660104</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1131071058123134</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.06284212276281882</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.148835502149717</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.024714869972399</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.100668197206791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 4,32</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 3,5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 2,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.3409716211314</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.16333087725089</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.397516585173241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.12478211382124</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.89464989957611</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>12.27192993456444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 9,03</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 8,14</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 5,24</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.06121976078940284</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.03035953404021013</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.04611519958247384</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1523417291358364</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1427417761888493</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.08991694434903032</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2828577448895956</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1899416801792925</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1973147137212021</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.06977941854302561</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4726386429136364</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2758640987926775</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.525941369288041</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.273337511843402</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.864471302841311</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.639994576941987</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.366969453911558</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.092526242626329</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.001398452616944419</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.01046260759106438</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.005809958213565142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.0865434345602773</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.0703312546701646</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.05862841648895373</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.09748791179628397</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.103294629591213</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.06645736710110658</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
